--- a/24.01.11_Logistic_Regression/LogisticRegression.xlsx
+++ b/24.01.11_Logistic_Regression/LogisticRegression.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RenzCute\Codes\Jupyter\24.01.11_Logistic_Regression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Codes\JupyterML\24.01.11_Logistic_Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C2E85E0-647A-4CDD-8136-B1B096DAC237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A57E18-1464-4767-925F-F9D5718AA59F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2414C574-989B-4FB9-8B1C-4363605AD0F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2414C574-989B-4FB9-8B1C-4363605AD0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Linear Regression" sheetId="2" r:id="rId2"/>
+    <sheet name="K-Nearest Neighbor" sheetId="3" r:id="rId3"/>
+    <sheet name="Support Vector Machine" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,12 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
   <si>
     <t>Average</t>
   </si>
@@ -75,13 +72,109 @@
   </si>
   <si>
     <t>solver = "liblinear", penalty="l2"</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>default solver = "ibfgs"</t>
+  </si>
+  <si>
+    <t>default solver = "newton-cg"</t>
+  </si>
+  <si>
+    <t>default solver = "saga"</t>
+  </si>
+  <si>
+    <t>default solver = "liblinear"</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Deviation</t>
+  </si>
+  <si>
+    <t>F-1 Score</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>n_neighbors = 5</t>
+  </si>
+  <si>
+    <t>n_neighbors = 1</t>
+  </si>
+  <si>
+    <t>n_neighbors = 7</t>
+  </si>
+  <si>
+    <t>n_neighbors = 15</t>
+  </si>
+  <si>
+    <t>n_neighbors = 21</t>
+  </si>
+  <si>
+    <t>n_neighbors = 23</t>
+  </si>
+  <si>
+    <t>HOLD OUT VALIDATION</t>
+  </si>
+  <si>
+    <t>Classification Accuracy</t>
+  </si>
+  <si>
+    <t>Classification Error</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>kernel = "rbf"</t>
+  </si>
+  <si>
+    <t>kernel = "linear"</t>
+  </si>
+  <si>
+    <t>kernel = "poly"</t>
+  </si>
+  <si>
+    <t>kernel = "sigmoid"</t>
+  </si>
+  <si>
+    <t>kernel = "precomputed</t>
+  </si>
+  <si>
+    <t>Specifity</t>
+  </si>
+  <si>
+    <t>False Negative Rate</t>
+  </si>
+  <si>
+    <t>False Positive Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +198,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +232,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -305,11 +430,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,15 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -344,6 +590,122 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,39 +1043,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40D7DCA3-0B2C-4E5A-834F-414F87E3B615}">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:L30"/>
+    <sheetView topLeftCell="A13" zoomScale="144" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" customWidth="1"/>
-    <col min="6" max="6" width="3.6328125" customWidth="1"/>
-    <col min="8" max="8" width="3.6328125" customWidth="1"/>
-    <col min="10" max="10" width="3.6328125" customWidth="1"/>
-    <col min="12" max="12" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.59765625" customWidth="1"/>
+    <col min="6" max="6" width="3.59765625" customWidth="1"/>
+    <col min="8" max="8" width="3.59765625" customWidth="1"/>
+    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="12" max="12" width="3.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:12">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B3" s="10"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="7"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -733,10 +1095,10 @@
       <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="12" t="s">
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4">
@@ -762,10 +1124,10 @@
         <f>ROUND(0.922452747252747, 4)</f>
         <v>0.92249999999999999</v>
       </c>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="5">
@@ -792,41 +1154,41 @@
         <f>ROUND(0.0344492664289539, 4)</f>
         <v>3.44E-2</v>
       </c>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="16" t="s">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-    </row>
-    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="8" spans="2:12">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
@@ -846,10 +1208,10 @@
       <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4">
@@ -876,10 +1238,10 @@
         <f>ROUND(0.922452747252747, 4)</f>
         <v>0.92249999999999999</v>
       </c>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="5">
@@ -906,41 +1268,41 @@
         <f>ROUND(0.0344492664289539, 4)</f>
         <v>3.44E-2</v>
       </c>
-      <c r="L11" s="15"/>
-    </row>
-    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="16" t="s">
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="14" spans="2:12">
+      <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="10"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
@@ -960,10 +1322,10 @@
       <c r="K15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B16" s="12" t="s">
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="4">
@@ -990,10 +1352,10 @@
         <f>ROUND(0.922452747252747, 4)</f>
         <v>0.92249999999999999</v>
       </c>
-      <c r="L16" s="13"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="5">
@@ -1020,41 +1382,41 @@
         <f>ROUND(0.0344492664289539, 4)</f>
         <v>3.44E-2</v>
       </c>
-      <c r="L17" s="15"/>
-    </row>
-    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="16" t="s">
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="18"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="20" spans="2:12">
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,10 +1436,10 @@
       <c r="K21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="12" t="s">
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="4">
@@ -1104,10 +1466,10 @@
         <f>ROUND(0.922452747252747, 4)</f>
         <v>0.92249999999999999</v>
       </c>
-      <c r="L22" s="13"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B23" s="14" t="s">
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="5">
@@ -1134,41 +1496,41 @@
         <f>ROUND(0.0344492664289539, 4)</f>
         <v>3.44E-2</v>
       </c>
-      <c r="L23" s="15"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="16" t="s">
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="7" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+    </row>
+    <row r="25" spans="2:12" ht="14.4" thickBot="1"/>
+    <row r="26" spans="2:12">
+      <c r="B26" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="B27" s="7"/>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,10 +1550,10 @@
       <c r="K27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="12" t="s">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="B28" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="4">
@@ -1218,10 +1580,10 @@
         <f>ROUND(0.922444688644688, 4)</f>
         <v>0.9224</v>
       </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="14" t="s">
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="B29" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="5">
@@ -1248,37 +1610,1799 @@
         <f>ROUND(0.0339607420832426, 4)</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="L29" s="15"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="16" t="s">
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="2:12" ht="14.4" thickBot="1">
+      <c r="B30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B14:L14"/>
     <mergeCell ref="B18:L18"/>
     <mergeCell ref="B20:L20"/>
     <mergeCell ref="B24:L24"/>
     <mergeCell ref="B26:L26"/>
     <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B14:L14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7EF6D5-7C17-4713-8505-3B0C1E15D02E}">
+  <dimension ref="B2:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.3984375" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" customWidth="1"/>
+    <col min="10" max="10" width="2.19921875" customWidth="1"/>
+    <col min="13" max="13" width="2.19921875" customWidth="1"/>
+    <col min="16" max="16" width="2.19921875" customWidth="1"/>
+    <col min="20" max="20" width="12.296875" customWidth="1"/>
+    <col min="21" max="21" width="2.19921875" customWidth="1"/>
+    <col min="24" max="24" width="2.19921875" customWidth="1"/>
+    <col min="27" max="27" width="2.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="E2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="E3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="49"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="E4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="43"/>
+      <c r="S4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" s="41"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="41"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="43"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="22"/>
+      <c r="V5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="19.95" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F7" s="32">
+        <f>ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="33">
+        <f>ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I7" s="5">
+        <f>ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="51">
+        <f>ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L7" s="5">
+        <f>ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="51">
+        <f>ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <f>ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="51">
+        <f>ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R7" s="5">
+        <f>ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="B8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F8" s="26">
+        <f t="shared" ref="F8:F10" si="0">ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="33">
+        <f t="shared" ref="H8:H10" si="1">ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I10" si="2">ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="51">
+        <f t="shared" ref="K8:K10" si="3">ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L10" si="4">ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="51">
+        <f t="shared" ref="N8:N10" si="5">ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" ref="O8:O10" si="6">ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="51">
+        <f t="shared" ref="Q8:Q9" si="7">ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8:R9" si="8">ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="B9" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F9" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="51">
+        <f t="shared" si="7"/>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="8"/>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G10" s="50"/>
+      <c r="H10" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J10" s="50"/>
+      <c r="K10" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="51">
+        <f>ROUND(0.922444688644688, 4)</f>
+        <v>0.9224</v>
+      </c>
+      <c r="R10" s="24">
+        <f>ROUND(0.0339607420832426, 4)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="S2:AC3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067041E0-6C99-4F09-999C-1ED2D74C945B}">
+  <dimension ref="B2:AE12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB22" activeCellId="1" sqref="T6 AB22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" customWidth="1"/>
+    <col min="10" max="10" width="2.19921875" customWidth="1"/>
+    <col min="13" max="13" width="2.19921875" customWidth="1"/>
+    <col min="16" max="16" width="2.19921875" customWidth="1"/>
+    <col min="20" max="20" width="21.69921875" customWidth="1"/>
+    <col min="21" max="21" width="12.796875" customWidth="1"/>
+    <col min="22" max="22" width="10.19921875" customWidth="1"/>
+    <col min="23" max="23" width="2.19921875" customWidth="1"/>
+    <col min="25" max="25" width="11.19921875" customWidth="1"/>
+    <col min="26" max="26" width="2.19921875" customWidth="1"/>
+    <col min="28" max="28" width="11.69921875" customWidth="1"/>
+    <col min="29" max="29" width="2.19921875" customWidth="1"/>
+    <col min="31" max="31" width="10.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:31">
+      <c r="E2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="54"/>
+      <c r="U2" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="47"/>
+    </row>
+    <row r="3" spans="2:31">
+      <c r="E3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="54"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="49"/>
+    </row>
+    <row r="4" spans="2:31">
+      <c r="E4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="43"/>
+      <c r="S4" s="56"/>
+      <c r="U4" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="41"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="43"/>
+    </row>
+    <row r="5" spans="2:31">
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="22"/>
+      <c r="X5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" ht="19.95" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="57"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+    </row>
+    <row r="7" spans="2:31">
+      <c r="B7" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F7" s="32">
+        <f>ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="33">
+        <f>ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I7" s="5">
+        <f>ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="51">
+        <f>ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L7" s="5">
+        <f>ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="51">
+        <f>ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <f>ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="51">
+        <f>ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R7" s="5">
+        <f>ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S7" s="55"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+    </row>
+    <row r="8" spans="2:31">
+      <c r="B8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" ref="F8:F12" si="0">ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="33">
+        <f t="shared" ref="H8:H12" si="1">ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I12" si="2">ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="51">
+        <f t="shared" ref="K8:K12" si="3">ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L12" si="4">ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="51">
+        <f t="shared" ref="N8:N12" si="5">ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" ref="O8:O12" si="6">ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="51">
+        <f t="shared" ref="Q8:Q9" si="7">ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8:R9" si="8">ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S8" s="55"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+    </row>
+    <row r="9" spans="2:31">
+      <c r="B9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="51">
+        <f t="shared" si="7"/>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="8"/>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S9" s="55"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+    </row>
+    <row r="10" spans="2:31">
+      <c r="B10" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F10" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J10" s="28"/>
+      <c r="K10" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M10" s="28"/>
+      <c r="N10" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="51">
+        <f>ROUND(0.922444688644688, 4)</f>
+        <v>0.9224</v>
+      </c>
+      <c r="R10" s="24">
+        <f>ROUND(0.0339607420832426, 4)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="55"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="24"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="24"/>
+      <c r="AE10" s="24"/>
+    </row>
+    <row r="11" spans="2:31">
+      <c r="B11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J11" s="28"/>
+      <c r="K11" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="51">
+        <f t="shared" ref="Q11:Q12" si="9">ROUND(0.922444688644688, 4)</f>
+        <v>0.9224</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" ref="R11:R12" si="10">ROUND(0.0339607420832426, 4)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S11" s="55"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="24"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="24"/>
+      <c r="AE11" s="24"/>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="B12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G12" s="50"/>
+      <c r="H12" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L12" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M12" s="52"/>
+      <c r="N12" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="51">
+        <f t="shared" si="9"/>
+        <v>0.9224</v>
+      </c>
+      <c r="R12" s="24">
+        <f t="shared" si="10"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S12" s="55"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="U2:AE3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B22B3C-9491-4D50-BA8E-35B219C15C00}">
+  <dimension ref="A2:AG12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="26.296875" customWidth="1"/>
+    <col min="7" max="7" width="2.19921875" customWidth="1"/>
+    <col min="10" max="10" width="2.19921875" customWidth="1"/>
+    <col min="13" max="13" width="2.19921875" customWidth="1"/>
+    <col min="16" max="16" width="2.19921875" customWidth="1"/>
+    <col min="19" max="19" width="3.19921875" customWidth="1"/>
+    <col min="20" max="20" width="2.19921875" customWidth="1"/>
+    <col min="21" max="21" width="25.296875" customWidth="1"/>
+    <col min="22" max="22" width="2.69921875" customWidth="1"/>
+    <col min="23" max="23" width="19.796875" customWidth="1"/>
+    <col min="24" max="24" width="2.69921875" customWidth="1"/>
+    <col min="25" max="25" width="13.19921875" customWidth="1"/>
+    <col min="26" max="26" width="2.69921875" customWidth="1"/>
+    <col min="27" max="27" width="10.69921875" customWidth="1"/>
+    <col min="28" max="28" width="2.69921875" customWidth="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
+    <col min="30" max="30" width="2.69921875" customWidth="1"/>
+    <col min="31" max="31" width="20.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:33">
+      <c r="E2" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="54"/>
+      <c r="U2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="E3" s="48"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="54"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="E4" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="43"/>
+      <c r="S4" s="56"/>
+      <c r="U4" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="V4" s="64"/>
+      <c r="W4" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB4" s="64"/>
+      <c r="AC4" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" s="64"/>
+      <c r="AE4" s="68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="67"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="67"/>
+    </row>
+    <row r="6" spans="1:33" ht="19.95" customHeight="1">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="57"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="25"/>
+      <c r="X6" s="29"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="25"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="31">
+        <v>0.90749999999999997</v>
+      </c>
+      <c r="F7" s="32">
+        <f>ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="33">
+        <f>ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I7" s="5">
+        <f>ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J7" s="28"/>
+      <c r="K7" s="51">
+        <f>ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L7" s="5">
+        <f>ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="51">
+        <f>ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <f>ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="51">
+        <f>ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R7" s="5">
+        <f>ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S7" s="55"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="59"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="B8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" ref="F8:F12" si="0">ROUND(0.0671286079104877, 4)</f>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="33">
+        <f t="shared" ref="H8:H12" si="1">ROUND(0.755046559803681, 4)</f>
+        <v>0.755</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" ref="I8:I12" si="2">ROUND(0.114512593493975, 4)</f>
+        <v>0.1145</v>
+      </c>
+      <c r="J8" s="28"/>
+      <c r="K8" s="51">
+        <f t="shared" ref="K8:K12" si="3">ROUND(0.833149189991295, 4)</f>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:L12" si="4">ROUND(0.104413859443907,4)</f>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="51">
+        <f t="shared" ref="N8:N12" si="5">ROUND(0.707619047619047, 4)</f>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" ref="O8:O12" si="6">ROUND(0.169529159894166, 4)</f>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="51">
+        <f t="shared" ref="Q8:Q9" si="7">ROUND(0.922452747252747, 4)</f>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" ref="R8:R9" si="8">ROUND(0.0344492664289539, 4)</f>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S8" s="55"/>
+      <c r="U8" s="59"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="59"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="38">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="61">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="61">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="61">
+        <f t="shared" si="7"/>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" si="8"/>
+        <v>3.44E-2</v>
+      </c>
+      <c r="S9" s="55"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="59"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F10" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="27">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L10" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M10" s="63"/>
+      <c r="N10" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="51">
+        <f>ROUND(0.922444688644688, 4)</f>
+        <v>0.9224</v>
+      </c>
+      <c r="R10" s="24">
+        <f>ROUND(0.0339607420832426, 4)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S10" s="55"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="28"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="28"/>
+      <c r="AE10" s="59"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="31">
+        <v>0.84250000000000003</v>
+      </c>
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
+        <v>6.7100000000000007E-2</v>
+      </c>
+      <c r="G11" s="50"/>
+      <c r="H11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.755</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="2"/>
+        <v>0.1145</v>
+      </c>
+      <c r="J11" s="50"/>
+      <c r="K11" s="51">
+        <f t="shared" si="3"/>
+        <v>0.83309999999999995</v>
+      </c>
+      <c r="L11" s="24">
+        <f t="shared" si="4"/>
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51">
+        <f t="shared" si="5"/>
+        <v>0.70760000000000001</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="6"/>
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="51">
+        <f t="shared" ref="Q11:Q12" si="9">ROUND(0.922444688644688, 4)</f>
+        <v>0.9224</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" ref="R11:R12" si="10">ROUND(0.0339607420832426, 4)</f>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="S11" s="55"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="50"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="59"/>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="59"/>
+      <c r="AD11" s="50"/>
+      <c r="AE11" s="59"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="58"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="E2:R3"/>
+    <mergeCell ref="U2:AE3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>